--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99596C12-DF53-4C03-A64F-441865BE729F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D1B0F9B-A56B-493E-9A1F-A11776915103}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,31 +64,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习jdbc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习xml</t>
+    <t>理解项目和JPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习xpath和d4j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解用户登录完整过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习statement和result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解jdbc和drivermangmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习多表连接查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习dom对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习js对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习js语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习js函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,12 +164,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,118 +503,176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
+      <c r="A2" s="3">
+        <v>43219</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>43222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>43224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43227</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>43228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43229</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>43230</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>43231</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>43232</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>43233</v>
+      </c>
+      <c r="B16" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D1B0F9B-A56B-493E-9A1F-A11776915103}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53401DF4-1872-4798-9DA3-5F71D491C2FA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,22 @@
   </si>
   <si>
     <t>学习js函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习servlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-22:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -515,9 +531,10 @@
     <col min="2" max="2" width="23.44140625" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,8 +547,11 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43219</v>
       </c>
@@ -542,7 +562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43220</v>
       </c>
@@ -553,7 +573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43221</v>
       </c>
@@ -564,7 +584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43222</v>
       </c>
@@ -575,7 +595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43223</v>
       </c>
@@ -586,7 +606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43224</v>
       </c>
@@ -597,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43225</v>
       </c>
@@ -608,7 +628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43226</v>
       </c>
@@ -619,60 +639,104 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43227</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43228</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43229</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43230</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43231</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43232</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43233</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>43234</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53401DF4-1872-4798-9DA3-5F71D491C2FA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59FE41F0-B633-4A16-A3B8-30523B2248A3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,25 @@
   </si>
   <si>
     <t>20:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:01</t>
+  </si>
+  <si>
+    <t>理解hibernate基础框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate入门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,17 +538,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="26.21875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
@@ -739,6 +758,34 @@
         <v>27</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>43239</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>43240</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59FE41F0-B633-4A16-A3B8-30523B2248A3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{63D1039F-5209-41CB-B7F7-6A9435BD87ED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>hibernate入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习hibernate0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate入门和详细配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-16:00，20:00-21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -786,6 +798,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>43241</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{63D1039F-5209-41CB-B7F7-6A9435BD87ED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C6AD7CD-E27D-4D0C-B348-1F5351B769A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>15:00-16:00，20:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键修改规则和主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-17:00,19:00-20:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,10 +562,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -812,6 +824,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>43242</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C6AD7CD-E27D-4D0C-B348-1F5351B769A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2EA81445-78DB-4F47-8811-76709F141765}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>16:00-17:00,19:00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate的crud和理解事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +574,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -838,6 +850,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>43244</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2EA81445-78DB-4F47-8811-76709F141765}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519CEDAB-1898-4088-93BC-7B2962104805}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,14 @@
   </si>
   <si>
     <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate的三种状态和缓存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,10 +582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -864,6 +872,17 @@
         <v>42</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>43246</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519CEDAB-1898-4088-93BC-7B2962104805}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A9E435-7E7B-4F9E-A4EF-A64C1AE82FA3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,22 @@
   </si>
   <si>
     <t>hibernate的三种状态和缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query和Criteria和SQLQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15::00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -882,6 +898,26 @@
       <c r="C23" t="s">
         <v>44</v>
       </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>43249</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A9E435-7E7B-4F9E-A4EF-A64C1AE82FA3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{333C979A-AD39-43A1-8FB1-6A31C9C58602}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15:00-16:00，20:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习hibernate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +212,22 @@
   </si>
   <si>
     <t>15:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatcherservlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入controller类和jsp配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19::00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-16:00,20:00-21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +613,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -857,7 +869,7 @@
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -865,13 +877,13 @@
         <v>43242</v>
       </c>
       <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>38</v>
-      </c>
-      <c r="E21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -879,13 +891,13 @@
         <v>43244</v>
       </c>
       <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,13 +905,13 @@
         <v>43246</v>
       </c>
       <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -907,17 +919,28 @@
         <v>43249</v>
       </c>
       <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
       <c r="E24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>43251</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{333C979A-AD39-43A1-8FB1-6A31C9C58602}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A63F9DF-CEE7-478E-B873-01AC2B059DF9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,26 @@
   </si>
   <si>
     <t>15:00-16:00,20:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入js和jsp文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，能导出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,10 +630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -942,6 +962,34 @@
         <v>50</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>43258</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>43262</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A63F9DF-CEE7-478E-B873-01AC2B059DF9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ABB4C870-0186-4FF8-BD3E-F9D564F06B39}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,14 @@
   </si>
   <si>
     <t>14:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习jeety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-10:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,10 +638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -990,6 +998,17 @@
         <v>56</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>43266</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ABB4C870-0186-4FF8-BD3E-F9D564F06B39}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B6C7DB54-1C77-4348-BEE7-01FE4F0EF7AF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,26 @@
   </si>
   <si>
     <t>8:00-10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败，没有主属性清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作立项申请书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度百分之50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,10 +658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1009,6 +1029,34 @@
         <v>58</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>43270</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>43271</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B6C7DB54-1C77-4348-BEE7-01FE4F0EF7AF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9B288B5F-D9BE-4479-BC62-BC40040C974F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>完成度百分之50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1057,6 +1069,20 @@
         <v>61</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>43272</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9B288B5F-D9BE-4479-BC62-BC40040C974F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A36A29A3-43C6-407B-B0D9-DF8CE36AF08F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>13:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善立项申请书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度百分之90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1083,6 +1095,20 @@
         <v>66</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>43274</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A36A29A3-43C6-407B-B0D9-DF8CE36AF08F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F0DCDBC9-5735-4DE0-8E7E-D45B0CFE0E12}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,22 @@
   </si>
   <si>
     <t>9:00-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置jira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善各种表格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,13 +359,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -682,10 +699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1109,6 +1126,31 @@
         <v>69</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>43276</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>43277</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F0DCDBC9-5735-4DE0-8E7E-D45B0CFE0E12}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{67BCE5FA-89CE-412E-90BF-A6EEBF6634EE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,18 @@
   </si>
   <si>
     <t>完善各种表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jenkins项目构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,10 +711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1151,6 +1163,20 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>43278</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{67BCE5FA-89CE-412E-90BF-A6EEBF6634EE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{746B8EFD-C763-49F4-9DE4-07484F4E38AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,22 @@
   </si>
   <si>
     <t>13:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块设计书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成百分之20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成百分之60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,10 +727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1177,6 +1193,56 @@
         <v>76</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>43279</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>43280</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>43283</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>43284</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{746B8EFD-C763-49F4-9DE4-07484F4E38AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{22F42F20-E414-4E50-B17E-BE802B3B5D85}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,18 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习lucene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucene基础信息和创建索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-16:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1237,10 +1249,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>43284</v>
+        <v>43318</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{22F42F20-E414-4E50-B17E-BE802B3B5D85}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{411DBE0E-9221-437A-A798-F6BD03CD1FE2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,18 @@
   </si>
   <si>
     <t>lucene基础信息和创建索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习lucene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建索引的过程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -739,10 +751,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1261,6 +1273,20 @@
         <v>83</v>
       </c>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>43319</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{411DBE0E-9221-437A-A798-F6BD03CD1FE2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F1920DE-5F1A-4850-BA67-761209D6588C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,18 @@
   </si>
   <si>
     <t>创建索引的过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习lucene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用文档写一个demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -751,10 +763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1287,6 +1299,20 @@
         <v>86</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>43320</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F1920DE-5F1A-4850-BA67-761209D6588C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E468BE54-31FA-46B5-A3F6-CC4C729CAC93}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +380,18 @@
   </si>
   <si>
     <t>15:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习lucene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建文档的代码实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,10 +775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1313,6 +1325,20 @@
         <v>89</v>
       </c>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>43321</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E468BE54-31FA-46B5-A3F6-CC4C729CAC93}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CEA97CD3-9E07-4AE9-87FF-D9B2E55C679B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,6 +388,18 @@
   </si>
   <si>
     <t>创建文档的代码实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习lucene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建索引的代码实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -775,7 +787,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
@@ -1339,6 +1351,20 @@
         <v>92</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>43322</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CEA97CD3-9E07-4AE9-87FF-D9B2E55C679B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5FE275D2-6348-47F3-8338-5BB2206211D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>创建索引的代码实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习lucene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引维护的代码实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -787,10 +799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1365,6 +1377,20 @@
         <v>95</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43324</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040131_liuhao.xlsx
+++ b/awm/doc/log/log_201608040131_liuhao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5FE275D2-6348-47F3-8338-5BB2206211D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E584DEF2-DD0C-4A77-9CA7-DC4B315DD1B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,18 @@
   </si>
   <si>
     <t>索引维护的代码实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -799,10 +811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1391,6 +1403,20 @@
         <v>98</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43342</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
